--- a/data/apps-master/1988.xlsx
+++ b/data/apps-master/1988.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisowen/Desktop/tranmere-web/data/apps-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB8A6E2-E808-F34E-9053-6251556DED17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8673253D-8141-044B-9940-16FFB797E2E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="15880" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5880" yWindow="1020" windowWidth="27640" windowHeight="15880" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2356" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2505" uniqueCount="89">
   <si>
     <t>Date</t>
   </si>
@@ -255,9 +255,6 @@
     <t>Foot</t>
   </si>
   <si>
-    <t>1988-09-23	Halifax Town	League	1988</t>
-  </si>
-  <si>
     <t>Own Goal</t>
   </si>
   <si>
@@ -286,6 +283,21 @@
   </si>
   <si>
     <t>FreeKick</t>
+  </si>
+  <si>
+    <t>1988-12-05</t>
+  </si>
+  <si>
+    <t>Sherpa Van Trophy</t>
+  </si>
+  <si>
+    <t>1988-12-13</t>
+  </si>
+  <si>
+    <t>1989-01-17</t>
+  </si>
+  <si>
+    <t>Wigan Athletic</t>
   </si>
 </sst>
 </file>
@@ -1139,10 +1151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="L61" sqref="A1:L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1710,14 +1722,14 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>32487</v>
+      <c r="A28" t="s">
+        <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="D28">
         <v>1988</v>
@@ -1731,13 +1743,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>32493</v>
+        <v>32487</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D29">
         <v>1988</v>
@@ -1750,14 +1762,14 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>32503</v>
+      <c r="A30" t="s">
+        <v>86</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="D30">
         <v>1988</v>
@@ -1771,10 +1783,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>32508</v>
+        <v>32493</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
         <v>10</v>
@@ -1791,10 +1803,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>32510</v>
+        <v>32503</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
         <v>10</v>
@@ -1811,13 +1823,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>32515</v>
+        <v>32508</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D33">
         <v>1988</v>
@@ -1831,13 +1843,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>32519</v>
+        <v>32510</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D34">
         <v>1988</v>
@@ -1851,13 +1863,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>32521</v>
+        <v>32515</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D35">
         <v>1988</v>
@@ -1871,13 +1883,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>32529</v>
+        <v>32519</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D36">
         <v>1988</v>
@@ -1891,10 +1903,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>32536</v>
+        <v>32521</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
         <v>10</v>
@@ -1910,14 +1922,14 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>32543</v>
+      <c r="A38" t="s">
+        <v>87</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="D38">
         <v>1988</v>
@@ -1931,10 +1943,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>32549</v>
+        <v>32529</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
         <v>10</v>
@@ -1951,10 +1963,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>32557</v>
+        <v>32536</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
@@ -1971,10 +1983,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>32564</v>
+        <v>32543</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
@@ -1991,10 +2003,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>32568</v>
+        <v>32549</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
@@ -2011,10 +2023,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>32570</v>
+        <v>32557</v>
       </c>
       <c r="B43" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
@@ -2031,10 +2043,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>32578</v>
+        <v>32564</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C44" t="s">
         <v>10</v>
@@ -2051,10 +2063,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>32580</v>
+        <v>32568</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C45" t="s">
         <v>10</v>
@@ -2071,10 +2083,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>32584</v>
+        <v>32570</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C46" t="s">
         <v>10</v>
@@ -2091,10 +2103,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>32587</v>
+        <v>32578</v>
       </c>
       <c r="B47" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C47" t="s">
         <v>10</v>
@@ -2111,10 +2123,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>32592</v>
+        <v>32580</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C48" t="s">
         <v>10</v>
@@ -2131,10 +2143,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>32594</v>
+        <v>32584</v>
       </c>
       <c r="B49" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C49" t="s">
         <v>10</v>
@@ -2151,10 +2163,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>32599</v>
+        <v>32587</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C50" t="s">
         <v>10</v>
@@ -2171,10 +2183,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>32603</v>
+        <v>32592</v>
       </c>
       <c r="B51" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C51" t="s">
         <v>10</v>
@@ -2191,10 +2203,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>32605</v>
+        <v>32594</v>
       </c>
       <c r="B52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C52" t="s">
         <v>10</v>
@@ -2211,10 +2223,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>32613</v>
+        <v>32599</v>
       </c>
       <c r="B53" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C53" t="s">
         <v>10</v>
@@ -2231,10 +2243,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>32626</v>
+        <v>32603</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C54" t="s">
         <v>10</v>
@@ -2251,10 +2263,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>32629</v>
+        <v>32605</v>
       </c>
       <c r="B55" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C55" t="s">
         <v>10</v>
@@ -2271,10 +2283,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>32634</v>
+        <v>32613</v>
       </c>
       <c r="B56" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C56" t="s">
         <v>10</v>
@@ -2291,10 +2303,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>32637</v>
+        <v>32626</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C57" t="s">
         <v>10</v>
@@ -2311,10 +2323,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>32641</v>
+        <v>32629</v>
       </c>
       <c r="B58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C58" t="s">
         <v>10</v>
@@ -2329,17 +2341,80 @@
         <v>1</v>
       </c>
     </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>32634</v>
+      </c>
+      <c r="B59" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59">
+        <v>1988</v>
+      </c>
+      <c r="E59" t="s">
+        <v>41</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>32637</v>
+      </c>
+      <c r="B60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60">
+        <v>1988</v>
+      </c>
+      <c r="E60" t="s">
+        <v>41</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>32641</v>
+      </c>
+      <c r="B61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61">
+        <v>1988</v>
+      </c>
+      <c r="E61" t="s">
+        <v>41</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L61">
+    <sortCondition ref="A2:A61"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3522,6 +3597,66 @@
         <v>10</v>
       </c>
     </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59">
+        <v>1988</v>
+      </c>
+      <c r="E59" t="s">
+        <v>46</v>
+      </c>
+      <c r="F59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60">
+        <v>1988</v>
+      </c>
+      <c r="E60" t="s">
+        <v>46</v>
+      </c>
+      <c r="F60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" t="s">
+        <v>85</v>
+      </c>
+      <c r="D61">
+        <v>1988</v>
+      </c>
+      <c r="E61" t="s">
+        <v>46</v>
+      </c>
+      <c r="F61">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3529,10 +3664,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4718,6 +4853,66 @@
         <v>11</v>
       </c>
     </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59">
+        <v>1988</v>
+      </c>
+      <c r="E59" t="s">
+        <v>45</v>
+      </c>
+      <c r="F59">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60">
+        <v>1988</v>
+      </c>
+      <c r="E60" t="s">
+        <v>45</v>
+      </c>
+      <c r="F60">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" t="s">
+        <v>85</v>
+      </c>
+      <c r="D61">
+        <v>1988</v>
+      </c>
+      <c r="E61" t="s">
+        <v>45</v>
+      </c>
+      <c r="F61">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4725,10 +4920,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADF2D75-497D-CE48-A9F3-59EF377C844A}">
-  <dimension ref="A1:N75"/>
+  <dimension ref="A1:N78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4800,19 +4995,19 @@
         <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -4832,13 +5027,13 @@
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -4875,7 +5070,7 @@
         <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I5">
         <v>14</v>
@@ -4884,7 +5079,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -4905,13 +5100,16 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7">
+      <c r="A7" s="2">
+        <v>32409</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3">
         <v>1988</v>
       </c>
       <c r="E7" t="s">
@@ -4919,20 +5117,20 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>32409</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
         <v>1988</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -4949,7 +5147,7 @@
         <v>1988</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -4989,16 +5187,16 @@
         <v>47</v>
       </c>
       <c r="G11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K11" t="b">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -5089,10 +5287,10 @@
         <v>47</v>
       </c>
       <c r="G16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I16">
         <v>75</v>
@@ -5101,7 +5299,7 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -5206,13 +5404,13 @@
         <v>46</v>
       </c>
       <c r="G22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K22" t="b">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -5246,7 +5444,7 @@
         <v>1988</v>
       </c>
       <c r="E24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -5269,19 +5467,19 @@
         <v>48</v>
       </c>
       <c r="G25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J25" t="b">
         <v>1</v>
       </c>
       <c r="M25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -5318,13 +5516,13 @@
         <v>46</v>
       </c>
       <c r="G27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K27" t="b">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -5347,16 +5545,16 @@
         <v>52</v>
       </c>
       <c r="G28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K28" t="b">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -5394,14 +5592,14 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>32487</v>
+      <c r="A31" t="s">
+        <v>84</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="D31">
         <v>1988</v>
@@ -5411,54 +5609,48 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>32487</v>
+      <c r="A32" t="s">
+        <v>84</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="D32">
         <v>1988</v>
       </c>
       <c r="E32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>32493</v>
+        <v>32487</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D33">
         <v>1988</v>
       </c>
       <c r="E33" t="s">
-        <v>46</v>
-      </c>
-      <c r="G33" t="s">
-        <v>80</v>
-      </c>
-      <c r="N33" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>32493</v>
+        <v>32487</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D34">
         <v>1988</v>
@@ -5466,45 +5658,30 @@
       <c r="E34" t="s">
         <v>46</v>
       </c>
-      <c r="G34" t="s">
-        <v>80</v>
-      </c>
-      <c r="N34" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>32508</v>
+      <c r="A35" t="s">
+        <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="D35">
         <v>1988</v>
       </c>
       <c r="E35" t="s">
-        <v>75</v>
-      </c>
-      <c r="G35" t="s">
-        <v>76</v>
-      </c>
-      <c r="J35" t="b">
-        <v>1</v>
-      </c>
-      <c r="N35" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>32510</v>
+        <v>32493</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
         <v>10</v>
@@ -5513,15 +5690,21 @@
         <v>1988</v>
       </c>
       <c r="E36" t="s">
-        <v>52</v>
+        <v>46</v>
+      </c>
+      <c r="G36" t="s">
+        <v>79</v>
+      </c>
+      <c r="N36" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>32510</v>
+        <v>32493</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
         <v>10</v>
@@ -5530,49 +5713,64 @@
         <v>1988</v>
       </c>
       <c r="E37" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="G37" t="s">
+        <v>79</v>
+      </c>
+      <c r="N37" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>32515</v>
+        <v>32508</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D38">
         <v>1988</v>
       </c>
       <c r="E38" t="s">
-        <v>50</v>
+        <v>74</v>
+      </c>
+      <c r="G38" t="s">
+        <v>75</v>
+      </c>
+      <c r="J38" t="b">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>32519</v>
+        <v>32510</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D39">
         <v>1988</v>
       </c>
       <c r="E39" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>32521</v>
+        <v>32510</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
@@ -5581,49 +5779,49 @@
         <v>1988</v>
       </c>
       <c r="E40" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>32521</v>
+        <v>32515</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D41">
         <v>1988</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>32521</v>
+        <v>32519</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D42">
         <v>1988</v>
       </c>
       <c r="E42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>32529</v>
+        <v>32521</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
@@ -5632,15 +5830,15 @@
         <v>1988</v>
       </c>
       <c r="E43" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>32536</v>
+        <v>32521</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
         <v>10</v>
@@ -5649,15 +5847,15 @@
         <v>1988</v>
       </c>
       <c r="E44" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>32543</v>
+        <v>32521</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C45" t="s">
         <v>10</v>
@@ -5666,15 +5864,15 @@
         <v>1988</v>
       </c>
       <c r="E45" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>32549</v>
+        <v>32529</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
         <v>10</v>
@@ -5688,10 +5886,10 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>32549</v>
+        <v>32536</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C47" t="s">
         <v>10</v>
@@ -5700,15 +5898,15 @@
         <v>1988</v>
       </c>
       <c r="E47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>32557</v>
+        <v>32543</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s">
         <v>10</v>
@@ -5717,15 +5915,15 @@
         <v>1988</v>
       </c>
       <c r="E48" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>32568</v>
+        <v>32549</v>
       </c>
       <c r="B49" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C49" t="s">
         <v>10</v>
@@ -5734,21 +5932,15 @@
         <v>1988</v>
       </c>
       <c r="E49" t="s">
-        <v>46</v>
-      </c>
-      <c r="G49" t="s">
-        <v>77</v>
-      </c>
-      <c r="K49" t="b">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>32570</v>
+        <v>32549</v>
       </c>
       <c r="B50" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C50" t="s">
         <v>10</v>
@@ -5757,15 +5949,15 @@
         <v>1988</v>
       </c>
       <c r="E50" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>32570</v>
+        <v>32557</v>
       </c>
       <c r="B51" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C51" t="s">
         <v>10</v>
@@ -5779,10 +5971,10 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>32578</v>
+        <v>32568</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C52" t="s">
         <v>10</v>
@@ -5791,15 +5983,21 @@
         <v>1988</v>
       </c>
       <c r="E52" t="s">
-        <v>53</v>
+        <v>46</v>
+      </c>
+      <c r="G52" t="s">
+        <v>76</v>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>32580</v>
+        <v>32570</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C53" t="s">
         <v>10</v>
@@ -5808,15 +6006,15 @@
         <v>1988</v>
       </c>
       <c r="E53" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>32580</v>
+        <v>32570</v>
       </c>
       <c r="B54" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C54" t="s">
         <v>10</v>
@@ -5825,15 +6023,15 @@
         <v>1988</v>
       </c>
       <c r="E54" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>32580</v>
+        <v>32578</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C55" t="s">
         <v>10</v>
@@ -5847,10 +6045,10 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>32587</v>
+        <v>32580</v>
       </c>
       <c r="B56" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C56" t="s">
         <v>10</v>
@@ -5859,15 +6057,15 @@
         <v>1988</v>
       </c>
       <c r="E56" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>32587</v>
+        <v>32580</v>
       </c>
       <c r="B57" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C57" t="s">
         <v>10</v>
@@ -5876,33 +6074,15 @@
         <v>1988</v>
       </c>
       <c r="E57" t="s">
-        <v>46</v>
-      </c>
-      <c r="F57" t="s">
         <v>53</v>
-      </c>
-      <c r="G57" t="s">
-        <v>76</v>
-      </c>
-      <c r="H57" t="s">
-        <v>79</v>
-      </c>
-      <c r="K57" t="b">
-        <v>1</v>
-      </c>
-      <c r="M57" t="s">
-        <v>78</v>
-      </c>
-      <c r="N57" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>32592</v>
+        <v>32580</v>
       </c>
       <c r="B58" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C58" t="s">
         <v>10</v>
@@ -5911,15 +6091,15 @@
         <v>1988</v>
       </c>
       <c r="E58" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>32592</v>
+        <v>32587</v>
       </c>
       <c r="B59" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C59" t="s">
         <v>10</v>
@@ -5928,15 +6108,15 @@
         <v>1988</v>
       </c>
       <c r="E59" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>32594</v>
+        <v>32587</v>
       </c>
       <c r="B60" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C60" t="s">
         <v>10</v>
@@ -5945,15 +6125,33 @@
         <v>1988</v>
       </c>
       <c r="E60" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="F60" t="s">
+        <v>53</v>
+      </c>
+      <c r="G60" t="s">
+        <v>75</v>
+      </c>
+      <c r="H60" t="s">
+        <v>78</v>
+      </c>
+      <c r="K60" t="b">
+        <v>1</v>
+      </c>
+      <c r="M60" t="s">
+        <v>77</v>
+      </c>
+      <c r="N60" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>32594</v>
+        <v>32592</v>
       </c>
       <c r="B61" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C61" t="s">
         <v>10</v>
@@ -5962,15 +6160,15 @@
         <v>1988</v>
       </c>
       <c r="E61" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>32594</v>
+        <v>32592</v>
       </c>
       <c r="B62" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C62" t="s">
         <v>10</v>
@@ -5979,15 +6177,15 @@
         <v>1988</v>
       </c>
       <c r="E62" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>32599</v>
+        <v>32594</v>
       </c>
       <c r="B63" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C63" t="s">
         <v>10</v>
@@ -5996,15 +6194,15 @@
         <v>1988</v>
       </c>
       <c r="E63" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>32599</v>
+        <v>32594</v>
       </c>
       <c r="B64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C64" t="s">
         <v>10</v>
@@ -6013,15 +6211,15 @@
         <v>1988</v>
       </c>
       <c r="E64" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>32603</v>
+        <v>32594</v>
       </c>
       <c r="B65" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C65" t="s">
         <v>10</v>
@@ -6030,15 +6228,15 @@
         <v>1988</v>
       </c>
       <c r="E65" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>32605</v>
+        <v>32599</v>
       </c>
       <c r="B66" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C66" t="s">
         <v>10</v>
@@ -6047,15 +6245,15 @@
         <v>1988</v>
       </c>
       <c r="E66" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>32605</v>
+        <v>32599</v>
       </c>
       <c r="B67" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C67" t="s">
         <v>10</v>
@@ -6064,15 +6262,15 @@
         <v>1988</v>
       </c>
       <c r="E67" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>32613</v>
+        <v>32603</v>
       </c>
       <c r="B68" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C68" t="s">
         <v>10</v>
@@ -6081,15 +6279,15 @@
         <v>1988</v>
       </c>
       <c r="E68" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>32613</v>
+        <v>32605</v>
       </c>
       <c r="B69" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C69" t="s">
         <v>10</v>
@@ -6098,15 +6296,15 @@
         <v>1988</v>
       </c>
       <c r="E69" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>32626</v>
+        <v>32605</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C70" t="s">
         <v>10</v>
@@ -6117,22 +6315,13 @@
       <c r="E70" t="s">
         <v>46</v>
       </c>
-      <c r="G70" t="s">
-        <v>84</v>
-      </c>
-      <c r="L70" t="b">
-        <v>1</v>
-      </c>
-      <c r="N70" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>32629</v>
+        <v>32613</v>
       </c>
       <c r="B71" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C71" t="s">
         <v>10</v>
@@ -6141,15 +6330,15 @@
         <v>1988</v>
       </c>
       <c r="E71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>32637</v>
+        <v>32613</v>
       </c>
       <c r="B72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C72" t="s">
         <v>10</v>
@@ -6158,15 +6347,15 @@
         <v>1988</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>32637</v>
+        <v>32626</v>
       </c>
       <c r="B73" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C73" t="s">
         <v>10</v>
@@ -6175,15 +6364,24 @@
         <v>1988</v>
       </c>
       <c r="E73" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="G73" t="s">
+        <v>83</v>
+      </c>
+      <c r="L73" t="b">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>32637</v>
+        <v>32629</v>
       </c>
       <c r="B74" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C74" t="s">
         <v>10</v>
@@ -6194,52 +6392,106 @@
       <c r="E74" t="s">
         <v>46</v>
       </c>
-      <c r="F74" t="s">
-        <v>44</v>
-      </c>
-      <c r="G74" t="s">
-        <v>76</v>
-      </c>
-      <c r="H74" t="s">
-        <v>77</v>
-      </c>
-      <c r="J74" t="b">
-        <v>1</v>
-      </c>
-      <c r="N74" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
+        <v>32637</v>
+      </c>
+      <c r="B75" t="s">
+        <v>20</v>
+      </c>
+      <c r="C75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75">
+        <v>1988</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>32637</v>
+      </c>
+      <c r="B76" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76">
+        <v>1988</v>
+      </c>
+      <c r="E76" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>32637</v>
+      </c>
+      <c r="B77" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77">
+        <v>1988</v>
+      </c>
+      <c r="E77" t="s">
+        <v>46</v>
+      </c>
+      <c r="F77" t="s">
+        <v>44</v>
+      </c>
+      <c r="G77" t="s">
+        <v>75</v>
+      </c>
+      <c r="H77" t="s">
+        <v>76</v>
+      </c>
+      <c r="J77" t="b">
+        <v>1</v>
+      </c>
+      <c r="N77" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
         <v>32641</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B78" t="s">
         <v>29</v>
       </c>
-      <c r="C75" t="s">
-        <v>10</v>
-      </c>
-      <c r="D75">
-        <v>1988</v>
-      </c>
-      <c r="E75" t="s">
+      <c r="C78" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78">
+        <v>1988</v>
+      </c>
+      <c r="E78" t="s">
         <v>46</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F78" t="s">
         <v>44</v>
       </c>
-      <c r="G75" t="s">
-        <v>77</v>
-      </c>
-      <c r="H75" t="s">
-        <v>81</v>
-      </c>
-      <c r="J75" t="b">
+      <c r="G78" t="s">
+        <v>76</v>
+      </c>
+      <c r="H78" t="s">
+        <v>80</v>
+      </c>
+      <c r="J78" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N79">
+    <sortCondition ref="A2:A79"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -6247,10 +6499,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="K52" sqref="K52:K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6602,7 +6854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>32440</v>
       </c>
@@ -6622,7 +6874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>32445</v>
       </c>
@@ -6642,7 +6894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>32448</v>
       </c>
@@ -6662,7 +6914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>32451</v>
       </c>
@@ -6682,7 +6934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>32454</v>
       </c>
@@ -6702,7 +6954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>32459</v>
       </c>
@@ -6722,7 +6974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>32466</v>
       </c>
@@ -6742,7 +6994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>32469</v>
       </c>
@@ -6762,7 +7014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>32472</v>
       </c>
@@ -6782,7 +7034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>32476</v>
       </c>
@@ -6802,7 +7054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>32479</v>
       </c>
@@ -6822,15 +7074,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>32487</v>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="D28">
         <v>1988</v>
@@ -6842,15 +7094,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>32493</v>
+        <v>32487</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D29">
         <v>1988</v>
@@ -6862,15 +7114,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>32503</v>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>86</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="D30">
         <v>1988</v>
@@ -6882,12 +7134,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>32508</v>
+        <v>32493</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
         <v>10</v>
@@ -6901,16 +7153,13 @@
       <c r="F31">
         <v>2</v>
       </c>
-      <c r="G31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>32510</v>
+        <v>32503</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
         <v>10</v>
@@ -6927,13 +7176,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>32515</v>
+        <v>32508</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D33">
         <v>1988</v>
@@ -6944,16 +7193,19 @@
       <c r="F33">
         <v>2</v>
       </c>
+      <c r="G33" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>32519</v>
+        <v>32510</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D34">
         <v>1988</v>
@@ -6967,13 +7219,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>32521</v>
+        <v>32515</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D35">
         <v>1988</v>
@@ -6987,13 +7239,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>32529</v>
+        <v>32519</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D36">
         <v>1988</v>
@@ -7007,10 +7259,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>32536</v>
+        <v>32521</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
         <v>10</v>
@@ -7026,14 +7278,14 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>32543</v>
+      <c r="A38" t="s">
+        <v>87</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="D38">
         <v>1988</v>
@@ -7044,16 +7296,13 @@
       <c r="F38">
         <v>2</v>
       </c>
-      <c r="G38" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>32549</v>
+        <v>32529</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
         <v>10</v>
@@ -7067,16 +7316,13 @@
       <c r="F39">
         <v>2</v>
       </c>
-      <c r="G39" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>32557</v>
+        <v>32536</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
@@ -7093,10 +7339,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>32564</v>
+        <v>32543</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
@@ -7110,13 +7356,16 @@
       <c r="F41">
         <v>2</v>
       </c>
+      <c r="G41" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>32568</v>
+        <v>32549</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
@@ -7130,13 +7379,16 @@
       <c r="F42">
         <v>2</v>
       </c>
+      <c r="G42" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>32570</v>
+        <v>32557</v>
       </c>
       <c r="B43" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
@@ -7153,10 +7405,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>32578</v>
+        <v>32564</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C44" t="s">
         <v>10</v>
@@ -7173,10 +7425,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>32580</v>
+        <v>32568</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C45" t="s">
         <v>10</v>
@@ -7193,10 +7445,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>32584</v>
+        <v>32570</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C46" t="s">
         <v>10</v>
@@ -7213,10 +7465,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>32587</v>
+        <v>32578</v>
       </c>
       <c r="B47" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C47" t="s">
         <v>10</v>
@@ -7233,10 +7485,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>32592</v>
+        <v>32580</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C48" t="s">
         <v>10</v>
@@ -7253,10 +7505,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>32594</v>
+        <v>32584</v>
       </c>
       <c r="B49" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C49" t="s">
         <v>10</v>
@@ -7273,10 +7525,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>32599</v>
+        <v>32587</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C50" t="s">
         <v>10</v>
@@ -7293,10 +7545,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>32603</v>
+        <v>32592</v>
       </c>
       <c r="B51" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C51" t="s">
         <v>10</v>
@@ -7313,10 +7565,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>32605</v>
+        <v>32594</v>
       </c>
       <c r="B52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C52" t="s">
         <v>10</v>
@@ -7333,10 +7585,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>32613</v>
+        <v>32599</v>
       </c>
       <c r="B53" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C53" t="s">
         <v>10</v>
@@ -7353,10 +7605,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>32626</v>
+        <v>32603</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C54" t="s">
         <v>10</v>
@@ -7373,10 +7625,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>32629</v>
+        <v>32605</v>
       </c>
       <c r="B55" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C55" t="s">
         <v>10</v>
@@ -7393,10 +7645,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>32634</v>
+        <v>32613</v>
       </c>
       <c r="B56" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C56" t="s">
         <v>10</v>
@@ -7413,10 +7665,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>32637</v>
+        <v>32626</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C57" t="s">
         <v>10</v>
@@ -7433,10 +7685,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>32641</v>
+        <v>32629</v>
       </c>
       <c r="B58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C58" t="s">
         <v>10</v>
@@ -7451,17 +7703,80 @@
         <v>2</v>
       </c>
     </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>32634</v>
+      </c>
+      <c r="B59" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59">
+        <v>1988</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>32637</v>
+      </c>
+      <c r="B60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60">
+        <v>1988</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>32641</v>
+      </c>
+      <c r="B61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61">
+        <v>1988</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L61">
+    <sortCondition ref="A2:A61"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E58" sqref="E56:E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8450,7 +8765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>32594</v>
       </c>
@@ -8470,7 +8785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>32599</v>
       </c>
@@ -8490,7 +8805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>32603</v>
       </c>
@@ -8510,7 +8825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>32605</v>
       </c>
@@ -8530,7 +8845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>32613</v>
       </c>
@@ -8550,7 +8865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>32626</v>
       </c>
@@ -8570,7 +8885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>32629</v>
       </c>
@@ -8590,7 +8905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>32634</v>
       </c>
@@ -8610,7 +8925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>32637</v>
       </c>
@@ -8630,7 +8945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>32641</v>
       </c>
@@ -8648,6 +8963,69 @@
       </c>
       <c r="F58">
         <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59">
+        <v>1988</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60">
+        <v>1988</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" t="s">
+        <v>85</v>
+      </c>
+      <c r="D61">
+        <v>1988</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+      <c r="G61" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -8657,10 +9035,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9891,6 +10269,69 @@
         <v>56</v>
       </c>
     </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59">
+        <v>1988</v>
+      </c>
+      <c r="E59" t="s">
+        <v>56</v>
+      </c>
+      <c r="F59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60">
+        <v>1988</v>
+      </c>
+      <c r="E60" t="s">
+        <v>52</v>
+      </c>
+      <c r="F60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" t="s">
+        <v>85</v>
+      </c>
+      <c r="D61">
+        <v>1988</v>
+      </c>
+      <c r="E61" t="s">
+        <v>52</v>
+      </c>
+      <c r="F61">
+        <v>4</v>
+      </c>
+      <c r="G61" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9898,10 +10339,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59:E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11135,6 +11576,66 @@
         <v>5</v>
       </c>
     </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59">
+        <v>1988</v>
+      </c>
+      <c r="E59" t="s">
+        <v>58</v>
+      </c>
+      <c r="F59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60">
+        <v>1988</v>
+      </c>
+      <c r="E60" t="s">
+        <v>58</v>
+      </c>
+      <c r="F60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" t="s">
+        <v>85</v>
+      </c>
+      <c r="D61">
+        <v>1988</v>
+      </c>
+      <c r="E61" t="s">
+        <v>58</v>
+      </c>
+      <c r="F61">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11142,10 +11643,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12128,7 +12629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>32594</v>
       </c>
@@ -12148,7 +12649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>32599</v>
       </c>
@@ -12168,7 +12669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>32603</v>
       </c>
@@ -12188,7 +12689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>32605</v>
       </c>
@@ -12208,7 +12709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>32613</v>
       </c>
@@ -12228,7 +12729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>32626</v>
       </c>
@@ -12248,7 +12749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>32629</v>
       </c>
@@ -12268,7 +12769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>32634</v>
       </c>
@@ -12288,7 +12789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>32637</v>
       </c>
@@ -12308,7 +12809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>32641</v>
       </c>
@@ -12325,6 +12826,69 @@
         <v>50</v>
       </c>
       <c r="F58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59">
+        <v>1988</v>
+      </c>
+      <c r="E59" t="s">
+        <v>51</v>
+      </c>
+      <c r="F59">
+        <v>6</v>
+      </c>
+      <c r="G59" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60">
+        <v>1988</v>
+      </c>
+      <c r="E60" t="s">
+        <v>50</v>
+      </c>
+      <c r="F60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" t="s">
+        <v>85</v>
+      </c>
+      <c r="D61">
+        <v>1988</v>
+      </c>
+      <c r="E61" t="s">
+        <v>50</v>
+      </c>
+      <c r="F61">
         <v>6</v>
       </c>
     </row>
@@ -12335,10 +12899,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13557,6 +14121,69 @@
         <v>7</v>
       </c>
     </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59">
+        <v>1988</v>
+      </c>
+      <c r="E59" t="s">
+        <v>49</v>
+      </c>
+      <c r="F59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60">
+        <v>1988</v>
+      </c>
+      <c r="E60" t="s">
+        <v>49</v>
+      </c>
+      <c r="F60">
+        <v>7</v>
+      </c>
+      <c r="G60" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" t="s">
+        <v>85</v>
+      </c>
+      <c r="D61">
+        <v>1988</v>
+      </c>
+      <c r="E61" t="s">
+        <v>49</v>
+      </c>
+      <c r="F61">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13564,10 +14191,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14768,6 +15395,69 @@
         <v>8</v>
       </c>
     </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59">
+        <v>1988</v>
+      </c>
+      <c r="E59" t="s">
+        <v>56</v>
+      </c>
+      <c r="F59">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60">
+        <v>1988</v>
+      </c>
+      <c r="E60" t="s">
+        <v>48</v>
+      </c>
+      <c r="F60">
+        <v>8</v>
+      </c>
+      <c r="G60" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" t="s">
+        <v>85</v>
+      </c>
+      <c r="D61">
+        <v>1988</v>
+      </c>
+      <c r="E61" t="s">
+        <v>48</v>
+      </c>
+      <c r="F61">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14775,10 +15465,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15967,6 +16657,66 @@
         <v>9</v>
       </c>
     </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59">
+        <v>1988</v>
+      </c>
+      <c r="E59" t="s">
+        <v>47</v>
+      </c>
+      <c r="F59">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60">
+        <v>1988</v>
+      </c>
+      <c r="E60" t="s">
+        <v>47</v>
+      </c>
+      <c r="F60">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" t="s">
+        <v>85</v>
+      </c>
+      <c r="D61">
+        <v>1988</v>
+      </c>
+      <c r="E61" t="s">
+        <v>53</v>
+      </c>
+      <c r="F61">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/apps-master/1988.xlsx
+++ b/data/apps-master/1988.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisowen/Desktop/tranmere-web/data/apps-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8673253D-8141-044B-9940-16FFB797E2E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B049A9EA-7A1B-0142-879A-1BFC9602C2B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="1020" windowWidth="27640" windowHeight="15880" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1160" yWindow="900" windowWidth="27640" windowHeight="15880" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2505" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2605" uniqueCount="89">
   <si>
     <t>Date</t>
   </si>
@@ -3666,7 +3666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
@@ -4922,9 +4922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADF2D75-497D-CE48-A9F3-59EF377C844A}">
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5098,6 +5096,21 @@
       <c r="E6" t="s">
         <v>56</v>
       </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
@@ -5166,6 +5179,21 @@
       <c r="E10" t="s">
         <v>47</v>
       </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -5215,6 +5243,12 @@
       <c r="E12" t="s">
         <v>51</v>
       </c>
+      <c r="G12" t="s">
+        <v>76</v>
+      </c>
+      <c r="M12" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -5232,6 +5266,21 @@
       <c r="E13" t="s">
         <v>48</v>
       </c>
+      <c r="F13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
@@ -5249,6 +5298,12 @@
       <c r="E14" t="s">
         <v>48</v>
       </c>
+      <c r="G14" t="s">
+        <v>83</v>
+      </c>
+      <c r="L14" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -5266,6 +5321,21 @@
       <c r="E15" t="s">
         <v>56</v>
       </c>
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" t="s">
+        <v>76</v>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -5352,6 +5422,21 @@
       <c r="E19" t="s">
         <v>56</v>
       </c>
+      <c r="F19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" t="s">
+        <v>78</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
@@ -5369,6 +5454,21 @@
       <c r="E20" t="s">
         <v>56</v>
       </c>
+      <c r="F20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" t="s">
+        <v>76</v>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
@@ -5386,6 +5486,21 @@
       <c r="E21" t="s">
         <v>49</v>
       </c>
+      <c r="F21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" t="s">
+        <v>80</v>
+      </c>
+      <c r="J21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
@@ -5498,6 +5613,15 @@
       <c r="E26" t="s">
         <v>46</v>
       </c>
+      <c r="G26" t="s">
+        <v>76</v>
+      </c>
+      <c r="J26" t="b">
+        <v>1</v>
+      </c>
+      <c r="M26" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
@@ -5573,6 +5697,15 @@
       <c r="E29" t="s">
         <v>44</v>
       </c>
+      <c r="G29" t="s">
+        <v>75</v>
+      </c>
+      <c r="J29" t="b">
+        <v>1</v>
+      </c>
+      <c r="M29" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
@@ -5590,6 +5723,21 @@
       <c r="E30" t="s">
         <v>49</v>
       </c>
+      <c r="F30" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H30" t="s">
+        <v>80</v>
+      </c>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -5607,6 +5755,24 @@
       <c r="E31" t="s">
         <v>47</v>
       </c>
+      <c r="F31" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31" t="b">
+        <v>1</v>
+      </c>
+      <c r="M31" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -5624,6 +5790,24 @@
       <c r="E32" t="s">
         <v>45</v>
       </c>
+      <c r="F32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" t="s">
+        <v>75</v>
+      </c>
+      <c r="H32" t="s">
+        <v>80</v>
+      </c>
+      <c r="J32" t="b">
+        <v>1</v>
+      </c>
+      <c r="M32" t="s">
+        <v>81</v>
+      </c>
+      <c r="N32" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
@@ -5764,6 +5948,15 @@
       <c r="E39" t="s">
         <v>52</v>
       </c>
+      <c r="G39" t="s">
+        <v>75</v>
+      </c>
+      <c r="L39" t="b">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
@@ -5781,6 +5974,21 @@
       <c r="E40" t="s">
         <v>47</v>
       </c>
+      <c r="F40" t="s">
+        <v>49</v>
+      </c>
+      <c r="G40" t="s">
+        <v>76</v>
+      </c>
+      <c r="H40" t="s">
+        <v>78</v>
+      </c>
+      <c r="J40" t="b">
+        <v>1</v>
+      </c>
+      <c r="M40" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
@@ -5883,6 +6091,15 @@
       <c r="E46" t="s">
         <v>56</v>
       </c>
+      <c r="G46" t="s">
+        <v>75</v>
+      </c>
+      <c r="J46" t="b">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
@@ -5934,6 +6151,18 @@
       <c r="E49" t="s">
         <v>56</v>
       </c>
+      <c r="G49" t="s">
+        <v>75</v>
+      </c>
+      <c r="J49" t="b">
+        <v>1</v>
+      </c>
+      <c r="M49" t="s">
+        <v>81</v>
+      </c>
+      <c r="N49" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
@@ -5951,6 +6180,21 @@
       <c r="E50" t="s">
         <v>50</v>
       </c>
+      <c r="F50" t="s">
+        <v>47</v>
+      </c>
+      <c r="G50" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" t="s">
+        <v>76</v>
+      </c>
+      <c r="J50" t="b">
+        <v>1</v>
+      </c>
+      <c r="M50" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
@@ -5985,12 +6229,6 @@
       <c r="E52" t="s">
         <v>46</v>
       </c>
-      <c r="G52" t="s">
-        <v>76</v>
-      </c>
-      <c r="K52" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
@@ -6008,6 +6246,12 @@
       <c r="E53" t="s">
         <v>47</v>
       </c>
+      <c r="G53" t="s">
+        <v>75</v>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
@@ -6025,6 +6269,12 @@
       <c r="E54" t="s">
         <v>46</v>
       </c>
+      <c r="G54" t="s">
+        <v>75</v>
+      </c>
+      <c r="J54" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
@@ -6059,6 +6309,9 @@
       <c r="E56" t="s">
         <v>74</v>
       </c>
+      <c r="M56" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
@@ -6076,6 +6329,24 @@
       <c r="E57" t="s">
         <v>53</v>
       </c>
+      <c r="F57" t="s">
+        <v>47</v>
+      </c>
+      <c r="G57" t="s">
+        <v>75</v>
+      </c>
+      <c r="H57" t="s">
+        <v>80</v>
+      </c>
+      <c r="K57" t="b">
+        <v>1</v>
+      </c>
+      <c r="M57" t="s">
+        <v>77</v>
+      </c>
+      <c r="N57" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
@@ -6093,6 +6364,18 @@
       <c r="E58" t="s">
         <v>53</v>
       </c>
+      <c r="F58" t="s">
+        <v>47</v>
+      </c>
+      <c r="G58" t="s">
+        <v>76</v>
+      </c>
+      <c r="H58" t="s">
+        <v>76</v>
+      </c>
+      <c r="J58" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
@@ -6110,6 +6393,15 @@
       <c r="E59" t="s">
         <v>46</v>
       </c>
+      <c r="G59" t="s">
+        <v>76</v>
+      </c>
+      <c r="J59" t="b">
+        <v>1</v>
+      </c>
+      <c r="M59" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
@@ -6196,6 +6488,9 @@
       <c r="E63" t="s">
         <v>48</v>
       </c>
+      <c r="G63" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
@@ -6213,6 +6508,21 @@
       <c r="E64" t="s">
         <v>47</v>
       </c>
+      <c r="F64" t="s">
+        <v>48</v>
+      </c>
+      <c r="G64" t="s">
+        <v>76</v>
+      </c>
+      <c r="H64" t="s">
+        <v>83</v>
+      </c>
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+      <c r="M64" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
@@ -6230,6 +6540,21 @@
       <c r="E65" t="s">
         <v>45</v>
       </c>
+      <c r="F65" t="s">
+        <v>47</v>
+      </c>
+      <c r="G65" t="s">
+        <v>76</v>
+      </c>
+      <c r="H65" t="s">
+        <v>76</v>
+      </c>
+      <c r="J65" t="b">
+        <v>1</v>
+      </c>
+      <c r="M65" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
@@ -6298,6 +6623,21 @@
       <c r="E69" t="s">
         <v>49</v>
       </c>
+      <c r="F69" t="s">
+        <v>47</v>
+      </c>
+      <c r="G69" t="s">
+        <v>75</v>
+      </c>
+      <c r="H69" t="s">
+        <v>80</v>
+      </c>
+      <c r="K69" t="b">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
@@ -6315,6 +6655,21 @@
       <c r="E70" t="s">
         <v>46</v>
       </c>
+      <c r="F70" t="s">
+        <v>47</v>
+      </c>
+      <c r="G70" t="s">
+        <v>75</v>
+      </c>
+      <c r="H70" t="s">
+        <v>76</v>
+      </c>
+      <c r="K70" t="b">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
@@ -6409,6 +6764,21 @@
       <c r="E75" t="s">
         <v>44</v>
       </c>
+      <c r="F75" t="s">
+        <v>48</v>
+      </c>
+      <c r="G75" t="s">
+        <v>76</v>
+      </c>
+      <c r="H75" t="s">
+        <v>82</v>
+      </c>
+      <c r="J75" t="b">
+        <v>1</v>
+      </c>
+      <c r="M75" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
@@ -6426,6 +6796,15 @@
       <c r="E76" t="s">
         <v>51</v>
       </c>
+      <c r="G76" t="s">
+        <v>75</v>
+      </c>
+      <c r="L76" t="b">
+        <v>1</v>
+      </c>
+      <c r="N76" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
@@ -6455,6 +6834,9 @@
       <c r="J77" t="b">
         <v>1</v>
       </c>
+      <c r="M77" t="s">
+        <v>77</v>
+      </c>
       <c r="N77" t="s">
         <v>77</v>
       </c>
@@ -6486,6 +6868,9 @@
       </c>
       <c r="J78" t="b">
         <v>1</v>
+      </c>
+      <c r="M78" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -7775,8 +8160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E58" sqref="E56:E61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15467,8 +15852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23:F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
